--- a/models/model_logistic_regression_v1/training_set_v1.xlsx
+++ b/models/model_logistic_regression_v1/training_set_v1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Sample_0037</t>
+          <t>Sample_0022</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Sample_0057</t>
+          <t>Sample_0031</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Sample_0052</t>
+          <t>Sample_0111</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Sample_0251</t>
+          <t>Sample_0235</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,17 +488,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Sample_0248</t>
+          <t>Sample_0103</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Sample_0023</t>
+          <t>Sample_0089</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Sample_0229</t>
+          <t>Sample_0118</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Sample_0105</t>
+          <t>Sample_0004</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Sample_0112</t>
+          <t>Sample_0035</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Sample_0031</t>
+          <t>Sample_0097</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Sample_0118</t>
+          <t>Sample_0106</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,37 +558,37 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Sample_0020</t>
+          <t>Sample_0116</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Sample_0218</t>
+          <t>Sample_0027</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Sample_0088</t>
+          <t>Sample_0107</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Sample_0244</t>
+          <t>Sample_0019</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Sample_0013</t>
+          <t>Sample_0254</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,27 +608,27 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Sample_0107</t>
+          <t>Sample_0128</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Sample_0216</t>
+          <t>Sample_0115</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Sample_0011</t>
+          <t>Sample_0013</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,17 +638,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sample_0023</t>
+          <t>Sample_0109</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Sample_0097</t>
+          <t>Sample_0241</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Sample_0026</t>
+          <t>Sample_0022</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Sample_0090</t>
+          <t>Sample_0100</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Sample_0124</t>
+          <t>Sample_0006</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Sample_0091</t>
+          <t>Sample_0025</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,31 +708,31 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Sample_0214</t>
+          <t>Sample_0090</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Sample_0013</t>
+          <t>Sample_0124</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Sample_0116</t>
+          <t>Sample_0126</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -748,17 +748,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Sample_0003</t>
+          <t>Sample_0012</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Sample_0236</t>
+          <t>Sample_0117</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,17 +768,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Sample_0133</t>
+          <t>Sample_0094</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Sample_0083</t>
+          <t>Sample_0125</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,17 +788,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Sample_0099</t>
+          <t>Sample_0003</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Sample_0057</t>
+          <t>Sample_0236</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,17 +808,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Sample_0035</t>
+          <t>Sample_0133</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Sample_0107</t>
+          <t>Sample_0074</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,17 +828,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Sample_0024</t>
+          <t>Sample_0218</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Sample_0033</t>
+          <t>Sample_0053</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,37 +848,37 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Sample_0134</t>
+          <t>Sample_0034</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sample_0134</t>
+          <t>Sample_0109</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sample_0022</t>
+          <t>Sample_0023</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sample_0020</t>
+          <t>Sample_0032</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,17 +888,17 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Sample_0131</t>
+          <t>Sample_0134</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Sample_0089</t>
+          <t>Sample_0134</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Sample_0088</t>
+          <t>Sample_0020</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Sample_0091</t>
+          <t>Sample_0019</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Sample_0032</t>
+          <t>Sample_0131</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Sample_0111</t>
+          <t>Sample_0088</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Sample_0092</t>
+          <t>Sample_0087</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,17 +958,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Sample_0087</t>
+          <t>Sample_0090</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Sample_0250</t>
+          <t>Sample_0031</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Sample_0225</t>
+          <t>Sample_0112</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Sample_0037</t>
+          <t>Sample_0091</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Sample_0097</t>
+          <t>Sample_0086</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,17 +1008,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Sample_0133</t>
+          <t>Sample_0250</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Sample_0243</t>
+          <t>Sample_0231</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Sample_0052</t>
+          <t>Sample_0035</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,27 +1038,27 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Sample_0085</t>
+          <t>Sample_0095</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Sample_0026</t>
+          <t>Sample_0133</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Sample_0034</t>
+          <t>Sample_0243</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Sample_0131</t>
+          <t>Sample_0047</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,17 +1078,17 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Sample_0215</t>
+          <t>Sample_0083</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Sample_0053</t>
+          <t>Sample_0025</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Sample_0253</t>
+          <t>Sample_0033</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Sample_0119</t>
+          <t>Sample_0131</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Sample_0004</t>
+          <t>Sample_0215</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Sample_0105</t>
+          <t>Sample_0052</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,17 +1138,17 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Sample_0040</t>
+          <t>Sample_0253</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Sample_0009</t>
+          <t>Sample_0122</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Sample_0118</t>
+          <t>Sample_0004</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,17 +1168,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Sample_0237</t>
+          <t>Sample_0103</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Sample_0242</t>
+          <t>Sample_0039</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,37 +1188,37 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Sample_0038</t>
+          <t>Sample_0237</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Sample_0089</t>
+          <t>Sample_0239</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Sample_0027</t>
+          <t>Sample_0242</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Sample_0011</t>
+          <t>Sample_0037</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Sample_0108</t>
+          <t>Sample_0088</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Sample_0094</t>
+          <t>Sample_0026</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,27 +1248,27 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Sample_0090</t>
+          <t>Sample_0011</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Sample_0233</t>
+          <t>Sample_0107</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Sample_0238</t>
+          <t>Sample_0093</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,37 +1278,37 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Sample_0093</t>
+          <t>Sample_0089</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Sample_0012</t>
+          <t>Sample_0233</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Sample_0014</t>
+          <t>Sample_0238</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Sample_0047</t>
+          <t>Sample_0092</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Sample_0228</t>
+          <t>Sample_0011</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Sample_0123</t>
+          <t>Sample_0014</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Sample_0016</t>
+          <t>Sample_0045</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Sample_0085</t>
+          <t>Sample_0228</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,17 +1358,17 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Sample_0232</t>
+          <t>Sample_0120</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Sample_0126</t>
+          <t>Sample_0016</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,17 +1378,17 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Sample_0224</t>
+          <t>Sample_0083</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Sample_0240</t>
+          <t>Sample_0232</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,17 +1398,17 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Sample_0053</t>
+          <t>Sample_0123</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Sample_0044</t>
+          <t>Sample_0224</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Sample_0106</t>
+          <t>Sample_0240</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Sample_0039</t>
+          <t>Sample_0052</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,17 +1438,17 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Sample_0252</t>
+          <t>Sample_0040</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Sample_0047</t>
+          <t>Sample_0105</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Sample_0093</t>
+          <t>Sample_0252</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Sample_0019</t>
+          <t>Sample_0045</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Sample_0045</t>
+          <t>Sample_0037</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Sample_0230</t>
+          <t>Sample_0092</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,17 +1508,17 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Sample_0254</t>
+          <t>Sample_0018</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Sample_0122</t>
+          <t>Sample_0044</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Sample_0031</t>
+          <t>Sample_0225</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Sample_0227</t>
+          <t>Sample_0249</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Sample_0245</t>
+          <t>Sample_0119</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,27 +1558,27 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Sample_0003</t>
+          <t>Sample_0027</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Sample_0040</t>
+          <t>Sample_0222</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Sample_0219</t>
+          <t>Sample_0245</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,17 +1588,17 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Sample_0123</t>
+          <t>Sample_0003</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Sample_0221</t>
+          <t>Sample_0039</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,27 +1608,27 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Sample_0103</t>
+          <t>Sample_0214</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Sample_0100</t>
+          <t>Sample_0119</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Sample_0112</t>
+          <t>Sample_0216</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,27 +1638,27 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Sample_0092</t>
+          <t>Sample_0101</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Sample_0086</t>
+          <t>Sample_0099</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Sample_0116</t>
+          <t>Sample_0110</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Sample_0255</t>
+          <t>Sample_0091</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Sample_0019</t>
+          <t>Sample_0085</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Sample_0083</t>
+          <t>Sample_0115</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Sample_0106</t>
+          <t>Sample_0255</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,17 +1708,17 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Sample_0015</t>
+          <t>Sample_0018</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Sample_0095</t>
+          <t>Sample_0074</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Sample_0249</t>
+          <t>Sample_0105</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,10 +1738,40 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Sample_0103</t>
+          <t>Sample_0014</t>
         </is>
       </c>
       <c r="B131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>Sample_0094</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>Sample_0244</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>Sample_0101</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
         <v>0</v>
       </c>
     </row>

--- a/models/model_logistic_regression_v1/training_set_v1.xlsx
+++ b/models/model_logistic_regression_v1/training_set_v1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,17 +448,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Sample_0022</t>
+          <t>Sample_0100</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Sample_0031</t>
+          <t>Sample_0226</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Sample_0111</t>
+          <t>Sample_0085</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Sample_0235</t>
+          <t>Sample_0047</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Sample_0103</t>
+          <t>Sample_0154</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,17 +498,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Sample_0089</t>
+          <t>Sample_0218</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Sample_0118</t>
+          <t>Sample_0088</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Sample_0004</t>
+          <t>Sample_0251</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Sample_0035</t>
+          <t>Sample_0160</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,27 +538,27 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Sample_0097</t>
+          <t>Sample_0038</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Sample_0106</t>
+          <t>Sample_0206</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Sample_0116</t>
+          <t>Sample_0208</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,17 +568,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Sample_0027</t>
+          <t>Sample_0242</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Sample_0107</t>
+          <t>Sample_0006</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Sample_0019</t>
+          <t>Sample_0093</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Sample_0254</t>
+          <t>Sample_0163</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,37 +608,37 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Sample_0128</t>
+          <t>Sample_0204</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Sample_0115</t>
+          <t>Sample_0219</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Sample_0013</t>
+          <t>Sample_0074</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sample_0109</t>
+          <t>Sample_0246</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Sample_0241</t>
+          <t>Sample_0033</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Sample_0009</t>
+          <t>Sample_0187</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Sample_0022</t>
+          <t>Sample_0148</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,17 +678,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Sample_0100</t>
+          <t>Sample_0053</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Sample_0006</t>
+          <t>Sample_0018</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Sample_0025</t>
+          <t>Sample_0185</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,27 +708,27 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Sample_0090</t>
+          <t>Sample_0215</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Sample_0124</t>
+          <t>Sample_0013</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Sample_0126</t>
+          <t>Sample_0039</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Sample_0124</t>
+          <t>Sample_0168</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,17 +748,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Sample_0012</t>
+          <t>Sample_0011</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Sample_0117</t>
+          <t>Sample_0052</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Sample_0094</t>
+          <t>Sample_0253</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Sample_0125</t>
+          <t>Sample_0201</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Sample_0003</t>
+          <t>Sample_0157</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,17 +798,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Sample_0236</t>
+          <t>Sample_0200</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Sample_0133</t>
+          <t>Sample_0017</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Sample_0074</t>
+          <t>Sample_0115</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Sample_0218</t>
+          <t>Sample_0159</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,17 +838,17 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Sample_0053</t>
+          <t>Sample_0202</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Sample_0034</t>
+          <t>Sample_0003</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sample_0109</t>
+          <t>Sample_0235</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,27 +868,27 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sample_0023</t>
+          <t>Sample_0238</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sample_0032</t>
+          <t>Sample_0124</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Sample_0134</t>
+          <t>Sample_0170</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,17 +898,17 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Sample_0134</t>
+          <t>Sample_0117</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Sample_0020</t>
+          <t>Sample_0091</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Sample_0019</t>
+          <t>Sample_0186</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,17 +928,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Sample_0131</t>
+          <t>Sample_0040</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Sample_0088</t>
+          <t>Sample_0087</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,27 +948,27 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Sample_0087</t>
+          <t>Sample_0176</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Sample_0090</t>
+          <t>Sample_0240</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Sample_0031</t>
+          <t>Sample_0212</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Sample_0112</t>
+          <t>Sample_0037</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Sample_0091</t>
+          <t>Sample_0034</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,27 +998,27 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Sample_0086</t>
+          <t>Sample_0207</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Sample_0250</t>
+          <t>Sample_0203</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Sample_0231</t>
+          <t>Sample_0139</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,17 +1028,17 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Sample_0035</t>
+          <t>Sample_0167</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Sample_0095</t>
+          <t>Sample_0137</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Sample_0133</t>
+          <t>Sample_0142</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Sample_0243</t>
+          <t>Sample_0086</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Sample_0047</t>
+          <t>Sample_0112</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,17 +1078,17 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Sample_0083</t>
+          <t>Sample_0180</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Sample_0025</t>
+          <t>Sample_0144</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,17 +1098,17 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Sample_0033</t>
+          <t>Sample_0135</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Sample_0131</t>
+          <t>Sample_0250</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Sample_0215</t>
+          <t>Sample_0224</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Sample_0052</t>
+          <t>Sample_0094</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,47 +1138,47 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Sample_0253</t>
+          <t>Sample_0152</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Sample_0122</t>
+          <t>Sample_0210</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Sample_0004</t>
+          <t>Sample_0090</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Sample_0103</t>
+          <t>Sample_0234</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Sample_0039</t>
+          <t>Sample_0009</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Sample_0237</t>
+          <t>Sample_0164</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,17 +1198,17 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Sample_0239</t>
+          <t>Sample_0103</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Sample_0242</t>
+          <t>Sample_0193</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Sample_0037</t>
+          <t>Sample_0236</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Sample_0088</t>
+          <t>Sample_0213</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Sample_0026</t>
+          <t>Sample_0241</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Sample_0011</t>
+          <t>Sample_0097</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,17 +1258,17 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Sample_0107</t>
+          <t>Sample_0138</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Sample_0093</t>
+          <t>Sample_0057</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Sample_0089</t>
+          <t>Sample_0014</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,37 +1288,37 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Sample_0233</t>
+          <t>Sample_0169</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Sample_0238</t>
+          <t>Sample_0149</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Sample_0092</t>
+          <t>Sample_0141</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Sample_0011</t>
+          <t>Sample_0232</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,17 +1328,17 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Sample_0014</t>
+          <t>Sample_0237</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Sample_0045</t>
+          <t>Sample_0147</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Sample_0228</t>
+          <t>Sample_0015</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,37 +1358,37 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Sample_0120</t>
+          <t>Sample_0020</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Sample_0016</t>
+          <t>Sample_0110</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Sample_0083</t>
+          <t>Sample_0227</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Sample_0232</t>
+          <t>Sample_0191</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,27 +1398,27 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Sample_0123</t>
+          <t>Sample_0025</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Sample_0224</t>
+          <t>Sample_0126</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Sample_0240</t>
+          <t>Sample_0231</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Sample_0052</t>
+          <t>Sample_0194</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Sample_0040</t>
+          <t>Sample_0223</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Sample_0105</t>
+          <t>Sample_0254</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Sample_0038</t>
+          <t>Sample_0116</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Sample_0252</t>
+          <t>Sample_0105</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,27 +1478,27 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Sample_0045</t>
+          <t>Sample_0166</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Sample_0037</t>
+          <t>Sample_0099</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Sample_0092</t>
+          <t>Sample_0252</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,27 +1508,27 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Sample_0018</t>
+          <t>Sample_0109</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Sample_0044</t>
+          <t>Sample_0095</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Sample_0225</t>
+          <t>Sample_0146</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Sample_0249</t>
+          <t>Sample_0032</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Sample_0119</t>
+          <t>Sample_0108</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,17 +1558,17 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Sample_0027</t>
+          <t>Sample_0220</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Sample_0222</t>
+          <t>Sample_0249</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Sample_0245</t>
+          <t>Sample_0189</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,17 +1588,17 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Sample_0003</t>
+          <t>Sample_0083</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Sample_0039</t>
+          <t>Sample_0217</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Sample_0214</t>
+          <t>Sample_0244</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Sample_0119</t>
+          <t>Sample_0004</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,17 +1628,17 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Sample_0216</t>
+          <t>Sample_0101</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Sample_0101</t>
+          <t>Sample_0209</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,17 +1648,17 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Sample_0099</t>
+          <t>Sample_0190</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Sample_0110</t>
+          <t>Sample_0211</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Sample_0091</t>
+          <t>Sample_0162</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Sample_0085</t>
+          <t>Sample_0158</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Sample_0115</t>
+          <t>Sample_0175</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,37 +1698,37 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Sample_0255</t>
+          <t>Sample_0145</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Sample_0018</t>
+          <t>Sample_0131</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Sample_0074</t>
+          <t>Sample_0181</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Sample_0105</t>
+          <t>Sample_0255</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,17 +1738,17 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Sample_0014</t>
+          <t>Sample_0031</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Sample_0094</t>
+          <t>Sample_0248</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,21 +1758,61 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Sample_0244</t>
+          <t>Sample_0125</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Sample_0101</t>
+          <t>Sample_0165</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>Sample_0022</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>Sample_0150</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>Sample_0239</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>Sample_0161</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
